--- a/data/trans_orig/P70D_R_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R_2023-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>3535</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1063</v>
+        <v>883</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9199</v>
+        <v>9364</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01766806975317404</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005313448563257129</v>
+        <v>0.004416033859528286</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04598343398224599</v>
+        <v>0.04680890962057803</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2730</v>
+        <v>1941</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003095256511199491</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01804435620359779</v>
+        <v>0.0128329413969071</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -783,19 +783,19 @@
         <v>4003</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1549</v>
+        <v>1518</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9741</v>
+        <v>9488</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01139318928764311</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00441002040186594</v>
+        <v>0.004321025390613064</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02772547022146603</v>
+        <v>0.02700461097161727</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>196517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>190853</v>
+        <v>190688</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>198989</v>
+        <v>199169</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9823319302468259</v>
+        <v>0.982331930246826</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.954016566017754</v>
+        <v>0.9531910903794236</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9946865514367428</v>
+        <v>0.9955839661404717</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>253</v>
@@ -833,16 +833,16 @@
         <v>150811</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>148549</v>
+        <v>149338</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>151279</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9969047434888005</v>
+        <v>0.9969047434888006</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9819556437964022</v>
+        <v>0.9871670586030928</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,19 +854,19 @@
         <v>347328</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>341590</v>
+        <v>341843</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>349782</v>
+        <v>349813</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.988606810712357</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.972274529778534</v>
+        <v>0.9729953890283823</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9955899795981341</v>
+        <v>0.9956789746093869</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>10564</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4904</v>
+        <v>4493</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19808</v>
+        <v>20736</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04179586689776969</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01940073691343419</v>
+        <v>0.01777590265952308</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07836773337584058</v>
+        <v>0.0820392972815447</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -979,19 +979,19 @@
         <v>9916</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5510</v>
+        <v>5612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16587</v>
+        <v>16078</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05720393741570838</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0317853234107465</v>
+        <v>0.03237335981624287</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09568384452299854</v>
+        <v>0.09275216638995903</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -1000,19 +1000,19 @@
         <v>20481</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12138</v>
+        <v>12797</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30113</v>
+        <v>30060</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04806414484008317</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02848500390290157</v>
+        <v>0.03003198646760982</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07066903339118748</v>
+        <v>0.0705451115562785</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>242196</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>232952</v>
+        <v>232024</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>247856</v>
+        <v>248267</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9582041331022303</v>
+        <v>0.9582041331022304</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9216322666241593</v>
+        <v>0.9179607027184548</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.980599263086566</v>
+        <v>0.9822240973404758</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>196</v>
@@ -1050,19 +1050,19 @@
         <v>163433</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>156762</v>
+        <v>157271</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>167839</v>
+        <v>167737</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9427960625842912</v>
+        <v>0.9427960625842915</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9043161554770009</v>
+        <v>0.907247833610041</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9682146765892535</v>
+        <v>0.9676266401837572</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>357</v>
@@ -1071,19 +1071,19 @@
         <v>405627</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>395995</v>
+        <v>396048</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>413970</v>
+        <v>413311</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9519358551599169</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9293309666088126</v>
+        <v>0.9294548884437214</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9715149960970986</v>
+        <v>0.9699680135323899</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>8586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4346</v>
+        <v>4207</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15168</v>
+        <v>14223</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05789742595927782</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02930640923548017</v>
+        <v>0.02837074974642581</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1022787163633906</v>
+        <v>0.09590594565300216</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1196,19 +1196,19 @@
         <v>11008</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5972</v>
+        <v>6622</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17547</v>
+        <v>18962</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09150677280743121</v>
+        <v>0.09150677280743123</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04963886129201919</v>
+        <v>0.05504998961099532</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1458607782913165</v>
+        <v>0.1576208851859267</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1217,19 +1217,19 @@
         <v>19594</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12643</v>
+        <v>12928</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28003</v>
+        <v>28315</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07295013560015266</v>
+        <v>0.07295013560015268</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04706857133531295</v>
+        <v>0.04812954044648254</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1042547481015654</v>
+        <v>0.1054160172803088</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>139716</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>133134</v>
+        <v>134079</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143956</v>
+        <v>144095</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9421025740407223</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8977212836366091</v>
+        <v>0.9040940543469975</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9706935907645196</v>
+        <v>0.9716292502535743</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -1267,19 +1267,19 @@
         <v>109291</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>102752</v>
+        <v>101337</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>114327</v>
+        <v>113677</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9084932271925688</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8541392217086834</v>
+        <v>0.8423791148140723</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9503611387079808</v>
+        <v>0.9449500103890046</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>289</v>
@@ -1288,19 +1288,19 @@
         <v>249007</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>240598</v>
+        <v>240286</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>255958</v>
+        <v>255673</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9270498643998472</v>
+        <v>0.9270498643998474</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8957452518984347</v>
+        <v>0.8945839827196913</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9529314286646871</v>
+        <v>0.9518704595535176</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>15596</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8007</v>
+        <v>8315</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26124</v>
+        <v>28132</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0750925918965992</v>
+        <v>0.07509259189659918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03855403312494657</v>
+        <v>0.04003801316536758</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1257870973473449</v>
+        <v>0.1354559031163921</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1413,19 +1413,19 @@
         <v>17180</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10520</v>
+        <v>10857</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27055</v>
+        <v>27348</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09721125229656766</v>
+        <v>0.09721125229656767</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05952407198748309</v>
+        <v>0.06143271890572137</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1530845260166717</v>
+        <v>0.1547425742704962</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -1434,19 +1434,19 @@
         <v>32776</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21531</v>
+        <v>21545</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46848</v>
+        <v>47705</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08526134800964175</v>
+        <v>0.0852613480096417</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05600831560667945</v>
+        <v>0.05604677047054651</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1218665787361726</v>
+        <v>0.1240955527751661</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>192091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>181563</v>
+        <v>179555</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>199680</v>
+        <v>199372</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9249074081034009</v>
+        <v>0.9249074081034007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8742129026526552</v>
+        <v>0.8645440968836081</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9614459668750536</v>
+        <v>0.9599619868346325</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>175</v>
@@ -1484,19 +1484,19 @@
         <v>159551</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>149676</v>
+        <v>149383</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>166211</v>
+        <v>165874</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9027887477034321</v>
+        <v>0.9027887477034323</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8469154739833289</v>
+        <v>0.8452574257295038</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.940475928012517</v>
+        <v>0.9385672810942786</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>286</v>
@@ -1505,19 +1505,19 @@
         <v>351642</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>337570</v>
+        <v>336713</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>362887</v>
+        <v>362873</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9147386519903583</v>
+        <v>0.9147386519903584</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8781334212638271</v>
+        <v>0.875904447224834</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9439916843933205</v>
+        <v>0.9439532295294536</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>5642</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2223</v>
+        <v>2333</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11193</v>
+        <v>11231</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04195512550004223</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01653233067793167</v>
+        <v>0.01734697287079468</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08322945694211074</v>
+        <v>0.08351721131090721</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1630,19 +1630,19 @@
         <v>3478</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1350</v>
+        <v>1328</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6923</v>
+        <v>6721</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02963321882527831</v>
+        <v>0.0296332188252783</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01150137310028122</v>
+        <v>0.01131527969005322</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05898692818067983</v>
+        <v>0.05726347589288868</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -1651,19 +1651,19 @@
         <v>9120</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5257</v>
+        <v>4865</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15300</v>
+        <v>15141</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03621291731164821</v>
+        <v>0.0362129173116482</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02087285576751996</v>
+        <v>0.01931638320649903</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06075133633356356</v>
+        <v>0.06012051201353196</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>128839</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>123288</v>
+        <v>123250</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132258</v>
+        <v>132148</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9580448744999577</v>
+        <v>0.9580448744999578</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9167705430578893</v>
+        <v>0.9164827886890944</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9834676693220684</v>
+        <v>0.9826530271292057</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>227</v>
@@ -1701,19 +1701,19 @@
         <v>113886</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>110441</v>
+        <v>110643</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>116014</v>
+        <v>116036</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9703667811747219</v>
+        <v>0.9703667811747217</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9410130718193201</v>
+        <v>0.9427365241071111</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9884986268997189</v>
+        <v>0.9886847203099468</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>388</v>
@@ -1722,19 +1722,19 @@
         <v>242724</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>236544</v>
+        <v>236703</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>246587</v>
+        <v>246979</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9637870826883518</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9392486636664367</v>
+        <v>0.9398794879864678</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9791271442324802</v>
+        <v>0.980683616793501</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>14172</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8286</v>
+        <v>9046</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21492</v>
+        <v>21373</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1053413909638641</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06158645623013972</v>
+        <v>0.06723828275115018</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1597468464769786</v>
+        <v>0.1588677068178759</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1847,19 +1847,19 @@
         <v>10016</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5835</v>
+        <v>6195</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15012</v>
+        <v>15451</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1158773227413519</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06750229295392263</v>
+        <v>0.07166514623296004</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1736813116378658</v>
+        <v>0.1787541004057123</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -1868,19 +1868,19 @@
         <v>24188</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16949</v>
+        <v>17180</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32747</v>
+        <v>32193</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1094626951545538</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07670019781012702</v>
+        <v>0.07774604037581936</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1481947960099329</v>
+        <v>0.1456862468785039</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>120364</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113044</v>
+        <v>113163</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>126250</v>
+        <v>125490</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8946586090361358</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.840253153523021</v>
+        <v>0.8411322931821242</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9384135437698601</v>
+        <v>0.9327617172488498</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>110</v>
@@ -1918,19 +1918,19 @@
         <v>76421</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>71425</v>
+        <v>70986</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>80602</v>
+        <v>80242</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.884122677258648</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8263186883621342</v>
+        <v>0.8212458995942875</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9324977070460775</v>
+        <v>0.9283348537670398</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>245</v>
@@ -1939,19 +1939,19 @@
         <v>196785</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>188226</v>
+        <v>188780</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>204024</v>
+        <v>203793</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8905373048454461</v>
+        <v>0.890537304845446</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8518052039900672</v>
+        <v>0.8543137531214958</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9232998021898731</v>
+        <v>0.9222539596241806</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>5674</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1199</v>
+        <v>1174</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14748</v>
+        <v>14186</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01478924247609138</v>
+        <v>0.01478924247609137</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003125081355384938</v>
+        <v>0.003060151368814762</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03844262019567625</v>
+        <v>0.03697569274556084</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2064,19 +2064,19 @@
         <v>8229</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4638</v>
+        <v>4254</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13886</v>
+        <v>14034</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0229698828061182</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01294679128774184</v>
+        <v>0.01187406984272155</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03875803101268584</v>
+        <v>0.03917019816370088</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -2085,19 +2085,19 @@
         <v>13903</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7789</v>
+        <v>7528</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24173</v>
+        <v>23714</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01873965578195726</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01049854340756094</v>
+        <v>0.01014734590927303</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03258223090615382</v>
+        <v>0.03196344326651931</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>377973</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>368899</v>
+        <v>369461</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>382448</v>
+        <v>382473</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9852107575239087</v>
+        <v>0.9852107575239084</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9615573798043238</v>
+        <v>0.9630243072544393</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9968749186446151</v>
+        <v>0.9969398486311852</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>432</v>
@@ -2135,19 +2135,19 @@
         <v>350041</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>344384</v>
+        <v>344236</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>353632</v>
+        <v>354016</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9770301171938818</v>
+        <v>0.9770301171938819</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9612419689873148</v>
+        <v>0.9608298018362991</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9870532087122584</v>
+        <v>0.9881259301572782</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>737</v>
@@ -2156,19 +2156,19 @@
         <v>728013</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>717743</v>
+        <v>718202</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>734127</v>
+        <v>734388</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9812603442180429</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.967417769093847</v>
+        <v>0.9680365567334808</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9895014565924392</v>
+        <v>0.989852654090727</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>17117</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9635</v>
+        <v>9509</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27047</v>
+        <v>26989</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03803099975292748</v>
+        <v>0.03803099975292747</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02140721999485659</v>
+        <v>0.02112648375216398</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06009382700039184</v>
+        <v>0.05996309556661534</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -2281,19 +2281,19 @@
         <v>26784</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18962</v>
+        <v>18619</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36495</v>
+        <v>36792</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08586923232740477</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06079169671118245</v>
+        <v>0.05969348385316203</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1170023179210388</v>
+        <v>0.1179540228361156</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>49</v>
@@ -2302,19 +2302,19 @@
         <v>43901</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32753</v>
+        <v>33202</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56672</v>
+        <v>58292</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05761299509161438</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04298283794713354</v>
+        <v>0.04357161085446757</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0743716867922202</v>
+        <v>0.0764978105273638</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>432970</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>423040</v>
+        <v>423098</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>440452</v>
+        <v>440578</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9619690002470725</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9399061729996081</v>
+        <v>0.9400369044333851</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9785927800051433</v>
+        <v>0.9788735162478361</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>341</v>
@@ -2352,19 +2352,19 @@
         <v>285133</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>275422</v>
+        <v>275125</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>292955</v>
+        <v>293298</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9141307676725953</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8829976820789611</v>
+        <v>0.8820459771638843</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9392083032888171</v>
+        <v>0.9403065161468381</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>704</v>
@@ -2373,19 +2373,19 @@
         <v>718103</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>705332</v>
+        <v>703712</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>729251</v>
+        <v>728802</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9423870049083857</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9256283132077799</v>
+        <v>0.9235021894726363</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9570171620528665</v>
+        <v>0.9564283891455326</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>80886</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>63347</v>
+        <v>64036</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>101948</v>
+        <v>100548</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0423145061577257</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03313889191046826</v>
+        <v>0.03349958850515361</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0533326645309885</v>
+        <v>0.05260029591415134</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>117</v>
@@ -2498,19 +2498,19 @@
         <v>87080</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>73009</v>
+        <v>72312</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>104599</v>
+        <v>106089</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.0582225973795733</v>
+        <v>0.05822259737957329</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04881438343421735</v>
+        <v>0.04834811695000268</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06993599030348424</v>
+        <v>0.07093186289841805</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>194</v>
@@ -2519,19 +2519,19 @@
         <v>167967</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>145909</v>
+        <v>146019</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>193702</v>
+        <v>198601</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04929762596082604</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04282369908875472</v>
+        <v>0.04285608396308416</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05685089968864356</v>
+        <v>0.05828883222682463</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>1830665</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1809603</v>
+        <v>1811003</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1848204</v>
+        <v>1847515</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9576854938422743</v>
+        <v>0.9576854938422742</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9466673354690114</v>
+        <v>0.9473997040858487</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9668611080895319</v>
+        <v>0.9665004114948467</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1883</v>
@@ -2569,19 +2569,19 @@
         <v>1408565</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1391046</v>
+        <v>1389556</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1422636</v>
+        <v>1423333</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9417774026204268</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9300640096965155</v>
+        <v>0.929068137101582</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9511856165657823</v>
+        <v>0.951651883049997</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3454</v>
@@ -2590,19 +2590,19 @@
         <v>3239229</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3213494</v>
+        <v>3208595</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3261287</v>
+        <v>3261177</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9507023740391739</v>
+        <v>0.9507023740391738</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9431491003113566</v>
+        <v>0.9417111677731753</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9571763009112457</v>
+        <v>0.9571439160369161</v>
       </c>
     </row>
     <row r="30">
